--- a/Data/EC/NIT-9007493361.xlsx
+++ b/Data/EC/NIT-9007493361.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE560178-6B1D-4168-9667-D2EE12E166AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0A5694A-6D00-41C0-BF35-0D357BBD983C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0C92A234-803A-42C0-ADB5-791A9C51AF87}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{31520D58-DEA9-4545-A935-4C03B74CD312}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,73 +65,73 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1143384213</t>
+  </si>
+  <si>
+    <t>RICARDO ANDRES BARRIOS MONTES</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
     <t>1007980980</t>
   </si>
   <si>
     <t>NATALIA ANDREA RICARDO MENA</t>
   </si>
   <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>1143384213</t>
-  </si>
-  <si>
-    <t>RICARDO ANDRES BARRIOS MONTES</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
     <t>1007229509</t>
   </si>
   <si>
     <t>JOSE DANIEL VILLA VILLARREAL</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -545,7 +545,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B2E1A9E-ABD1-1920-7CC7-53B2E6672E7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C8D87D-42FD-D480-36EF-83E3958247AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -896,7 +896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1192AFF1-F4F8-47BF-B4A0-F7C78461D492}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DFDDF9-643B-4633-8EF5-2D74B92736D1}">
   <dimension ref="B2:J40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1074,7 +1074,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>80000</v>
+        <v>58667</v>
       </c>
       <c r="G16" s="18">
         <v>2000000</v>
@@ -1088,13 +1088,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>80000</v>
@@ -1111,13 +1111,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>80000</v>
@@ -1134,13 +1134,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>80000</v>
@@ -1157,16 +1157,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>53334</v>
+        <v>80000</v>
       </c>
       <c r="G20" s="18">
         <v>2000000</v>
@@ -1180,13 +1180,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>80000</v>
@@ -1203,13 +1203,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>80000</v>
@@ -1226,13 +1226,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>80000</v>
@@ -1249,13 +1249,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>80000</v>
@@ -1272,13 +1272,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>80000</v>
@@ -1295,13 +1295,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>80000</v>
@@ -1318,13 +1318,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>80000</v>
@@ -1341,13 +1341,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>80000</v>
@@ -1364,13 +1364,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>80000</v>
@@ -1387,13 +1387,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>80000</v>
@@ -1410,13 +1410,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>80000</v>
@@ -1433,13 +1433,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>80000</v>
@@ -1456,13 +1456,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F33" s="18">
         <v>80000</v>
@@ -1479,16 +1479,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F34" s="24">
-        <v>58667</v>
+        <v>53334</v>
       </c>
       <c r="G34" s="24">
         <v>2000000</v>

--- a/Data/EC/NIT-9007493361.xlsx
+++ b/Data/EC/NIT-9007493361.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0A5694A-6D00-41C0-BF35-0D357BBD983C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4902B8E-9155-452C-A4AB-05F7731E53A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{31520D58-DEA9-4545-A935-4C03B74CD312}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{89A00186-62F4-4D72-9657-AA9AC69DAF1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,67 +71,67 @@
     <t>RICARDO ANDRES BARRIOS MONTES</t>
   </si>
   <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>1007980980</t>
+  </si>
+  <si>
+    <t>NATALIA ANDREA RICARDO MENA</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>1007229509</t>
+  </si>
+  <si>
+    <t>JOSE DANIEL VILLA VILLARREAL</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
     <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>1007980980</t>
-  </si>
-  <si>
-    <t>NATALIA ANDREA RICARDO MENA</t>
-  </si>
-  <si>
-    <t>1007229509</t>
-  </si>
-  <si>
-    <t>JOSE DANIEL VILLA VILLARREAL</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -230,7 +230,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -243,9 +245,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -445,23 +445,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,10 +489,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -545,7 +545,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C8D87D-42FD-D480-36EF-83E3958247AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68B2AD54-108E-0B78-D010-928778EB7427}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -896,7 +896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DFDDF9-643B-4633-8EF5-2D74B92736D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907FD29D-069F-452D-AC45-904B887A901B}">
   <dimension ref="B2:J40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1074,7 +1074,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>58667</v>
+        <v>80000</v>
       </c>
       <c r="G16" s="18">
         <v>2000000</v>
@@ -1088,13 +1088,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>80000</v>
@@ -1117,7 +1117,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>80000</v>
@@ -1140,7 +1140,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
         <v>80000</v>
@@ -1157,16 +1157,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>80000</v>
+        <v>53334</v>
       </c>
       <c r="G20" s="18">
         <v>2000000</v>
@@ -1186,7 +1186,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>80000</v>
@@ -1209,7 +1209,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>80000</v>
@@ -1232,7 +1232,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>80000</v>
@@ -1255,7 +1255,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>80000</v>
@@ -1278,7 +1278,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>80000</v>
@@ -1301,7 +1301,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>80000</v>
@@ -1324,7 +1324,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>80000</v>
@@ -1347,7 +1347,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>80000</v>
@@ -1370,7 +1370,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
         <v>80000</v>
@@ -1393,7 +1393,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
         <v>80000</v>
@@ -1416,7 +1416,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
         <v>80000</v>
@@ -1439,7 +1439,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
         <v>80000</v>
@@ -1456,13 +1456,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
         <v>80000</v>
@@ -1479,16 +1479,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D34" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="22" t="s">
-        <v>25</v>
-      </c>
       <c r="F34" s="24">
-        <v>53334</v>
+        <v>58667</v>
       </c>
       <c r="G34" s="24">
         <v>2000000</v>
